--- a/Cyber/電子書籍リーダリスト.xlsx
+++ b/Cyber/電子書籍リーダリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o334-my.sharepoint.com/personal/mskn55_iri-net_tokyo/Documents/git_repository_Duo/Presentation_Doc/Cyber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D066CA252ABDACC1048C95194D73A72EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD625422-43C0-42B8-9705-FB4DED39D52C}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_AD4D066CA252ABDACC1048C95194D73A72EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2701880F-48F8-4969-BB89-B7044934D780}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="1092" windowWidth="19176" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="528" yWindow="1104" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>iBooks Store</t>
   </si>
@@ -168,6 +168,13 @@
   </si>
   <si>
     <t>Android/data/jp.co.dnp.eps.ebook_app.android/files/epub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -498,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -511,6 +518,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
